--- a/数据整理/stocks/A股/科创板/688326-经纬恒润.xlsx
+++ b/数据整理/stocks/A股/科创板/688326-经纬恒润.xlsx
@@ -6,8 +6,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,6 +451,58 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1371,56 +1423,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.91</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688326-经纬恒润.xlsx
+++ b/数据整理/stocks/A股/科创板/688326-经纬恒润.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,13 +483,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2022-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q2</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>23</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.91</v>
       </c>
     </row>
@@ -498,6 +515,746 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006803</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实互通精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1942</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501099</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>平安科技创新 3 年封闭混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1286</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011506</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信高端装备股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1252</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>平安科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011793</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1181</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011507</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信高端装备股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012143</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新沃内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015078</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信价值优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012144</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>新沃内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
